--- a/biology/Botanique/Otto_Renner/Otto_Renner.xlsx
+++ b/biology/Botanique/Otto_Renner/Otto_Renner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Otto Renner ForMemRS [1] (25 avril 1883 à Neu-Ulm - 8 juillet 1960) est un phytogénéticien allemand. À la suite des travaux d'Erwin Baur, Renner établit la théorie de l'hérédité des plastes maternels en tant que théorie génétique largement acceptée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Otto Renner ForMemRS  (25 avril 1883 à Neu-Ulm - 8 juillet 1960) est un phytogénéticien allemand. À la suite des travaux d'Erwin Baur, Renner établit la théorie de l'hérédité des plastes maternels en tant que théorie génétique largement acceptée.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie la botanique avec Karl von Goebel et Ludwig Radlkofer à l'Université de Munich, et avec Wilhelm Pfeffer à l'Université de Leipzig. De 1913 à 1920, il est professeur agrégé de physiologie végétale à Munich, puis succède à Christian Ernst Stahl à la chaire de botanique de l'Université d'Iéna, où il est également directeur des jardins botaniques[2]. En 1946, il retourne comme professeur à l'Université de Munic [3].
-Renner travaille avec des plantes du genre Oenothera (onagres). Ses recherches sur les formes hybrides d'Oenothera contribuent de manière significative à la compréhension des mutations[3].
-De 1932 à 1943, il est rédacteur en chef de la revue botanique Flora[3]. Le genre végétal Rennera (famille des Astéracées) est nommé en son honneur par Hermann Merxmüller[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie la botanique avec Karl von Goebel et Ludwig Radlkofer à l'Université de Munich, et avec Wilhelm Pfeffer à l'Université de Leipzig. De 1913 à 1920, il est professeur agrégé de physiologie végétale à Munich, puis succède à Christian Ernst Stahl à la chaire de botanique de l'Université d'Iéna, où il est également directeur des jardins botaniques. En 1946, il retourne comme professeur à l'Université de Munic .
+Renner travaille avec des plantes du genre Oenothera (onagres). Ses recherches sur les formes hybrides d'Oenothera contribuent de manière significative à la compréhension des mutations.
+De 1932 à 1943, il est rédacteur en chef de la revue botanique Flora. Le genre végétal Rennera (famille des Astéracées) est nommé en son honneur par Hermann Merxmüller.
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beiträge zur Anatomie und Systematik der Artocarpeen und Conocephaleen insbesondere der Gattung Ficus, 1906 (thèse de doctorat).
 Untersuchungen über die faktorielle Konstitution einiger komplexheterozygotischer Önotheren, 1925.
 Artbastarde bei Pflanzen, 1929.
 Führer durch die Gewächshäuser des Botanischen Gartens München-Nymphenburg, 1951.
-William Bateson et Carl Correns, 1961 – William Bateson et Carl Correns[5].</t>
+William Bateson et Carl Correns, 1961 – William Bateson et Carl Correns.</t>
         </is>
       </c>
     </row>
